--- a/ADAPTIVE_THRESHOLD_TESTS/test_results.xlsx
+++ b/ADAPTIVE_THRESHOLD_TESTS/test_results.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$13:$J$14</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,17 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="172">
   <si>
     <t># Frames</t>
   </si>
   <si>
-    <t>Block size</t>
-  </si>
-  <si>
-    <t>C Constant</t>
-  </si>
-  <si>
     <t>Output Video Filename Warped</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Adaptive</t>
   </si>
   <si>
-    <t>Gaussian</t>
-  </si>
-  <si>
     <t>Binary_Inverse</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>debug_log78.log</t>
   </si>
   <si>
-    <t>It is getting better with lower C values but it is still so far from needed target.</t>
-  </si>
-  <si>
     <t>adaptive_test04.avi</t>
   </si>
   <si>
@@ -203,15 +194,9 @@
     <t>debug_log82.log</t>
   </si>
   <si>
-    <t>Too much noise in threshold it should be tested with another values. (29 errors / 1000)</t>
-  </si>
-  <si>
     <t>Because of some camera problems there was too much no detection parts because of that test will be repeated. (140  errors over 1000)</t>
   </si>
   <si>
-    <t>(83  errors over 1000)</t>
-  </si>
-  <si>
     <t>adaptive_test08.avi</t>
   </si>
   <si>
@@ -222,13 +207,349 @@
   </si>
   <si>
     <t>debug_log83.log</t>
+  </si>
+  <si>
+    <t>It is getting better with lower C values but it is still so far from needed target. (217 errors over 317)</t>
+  </si>
+  <si>
+    <t>(83  errors over 1083)</t>
+  </si>
+  <si>
+    <t>Too much noise in threshold it should be tested with another values. (29 errors / 1029)</t>
+  </si>
+  <si>
+    <t>With no dilation outer frame is detected generally but results are better than dilation. Probably dilation is also multiplying noises with edges. (65 error over 1065)</t>
+  </si>
+  <si>
+    <t>adaptive_test09.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test_warp09.avi</t>
+  </si>
+  <si>
+    <t>Adaptive_time_profile07.txt</t>
+  </si>
+  <si>
+    <t>debug_log84.txt</t>
+  </si>
+  <si>
+    <t>adaptive_test10.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test_warp10.avi</t>
+  </si>
+  <si>
+    <t>Adaptive_time_profile08.txt</t>
+  </si>
+  <si>
+    <t>debug_log86.txt</t>
+  </si>
+  <si>
+    <t>Gaussiam blur normal value is set to 5 in that case. For that experiment gaussian blur block size increased to 7. (666 over 1666)</t>
+  </si>
+  <si>
+    <t>More realisistic timing results video outputs change normal coding to threading. (421 over 1421) Too much not detected parts because of fast detection. It will be tested more in next steps.</t>
+  </si>
+  <si>
+    <t>Before experimentgeneral notes</t>
+  </si>
+  <si>
+    <t>Gaussian blur set 5 to 7 but no threading in video recording so it is still slower.</t>
+  </si>
+  <si>
+    <t>Gaussian blur is 7 and faster algorithm because video recording is not making code slower. Threading applied.</t>
+  </si>
+  <si>
+    <t>Gaussian blurr set to 5 again. It is testing faster version of code because code failed with gaussian blur 7 size. It is faster version of test #9</t>
+  </si>
+  <si>
+    <t># of Experiment</t>
+  </si>
+  <si>
+    <t>adaptive_test11.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test_warp11.avi</t>
+  </si>
+  <si>
+    <t>Adaptive_time_profile09.txt</t>
+  </si>
+  <si>
+    <t>debug_log87.txt</t>
+  </si>
+  <si>
+    <t>yes (3 by 3 one iteration)</t>
+  </si>
+  <si>
+    <t>8.3ms</t>
+  </si>
+  <si>
+    <t>adaptive_test12.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test_warp12.avi</t>
+  </si>
+  <si>
+    <t>Adaptive_time_profile10.txt</t>
+  </si>
+  <si>
+    <t>Dilation added for better results in detection.</t>
+  </si>
+  <si>
+    <t>debug_log89.txt</t>
+  </si>
+  <si>
+    <t>Results still not satisfying next step will repeat with same parameters but it will be added dilation. (1104 over 2104)</t>
+  </si>
+  <si>
+    <t>466 over 1466</t>
+  </si>
+  <si>
+    <t>Gaussian -  Blur = 5</t>
+  </si>
+  <si>
+    <t>Gaussian -  Blur = 7</t>
+  </si>
+  <si>
+    <t>Gaussian - Blur  = 5</t>
+  </si>
+  <si>
+    <t>Gaussian - Blur  = 7</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>adaptive_test13.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test14.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test15.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test16.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test_warp13.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test_warp14.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test_warp15.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test_warp16.avi</t>
+  </si>
+  <si>
+    <t>Adaptive_time_profile11.txt</t>
+  </si>
+  <si>
+    <t>Adaptive_time_profile12.txt</t>
+  </si>
+  <si>
+    <t>Adaptive_time_profile13.txt</t>
+  </si>
+  <si>
+    <t>Adaptive_time_profile14.txt</t>
+  </si>
+  <si>
+    <t>debug_log90.txt</t>
+  </si>
+  <si>
+    <t>debug_log91.txt</t>
+  </si>
+  <si>
+    <t>debug_log92.txt</t>
+  </si>
+  <si>
+    <t>debug_log93.txt</t>
+  </si>
+  <si>
+    <t>adaptive_test17.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test18.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test19.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test20.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test_warp17.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test_warp18.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test_warp19.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test_warp20.avi</t>
+  </si>
+  <si>
+    <t>Adaptive_time_profile15.txt</t>
+  </si>
+  <si>
+    <t>Adaptive_time_profile16.txt</t>
+  </si>
+  <si>
+    <t>Adaptive_time_profile17.txt</t>
+  </si>
+  <si>
+    <t>Adaptive_time_profile18.txt</t>
+  </si>
+  <si>
+    <t>debug_log94.txt</t>
+  </si>
+  <si>
+    <t>debug_log95.txt</t>
+  </si>
+  <si>
+    <t>debug_log96.txt</t>
+  </si>
+  <si>
+    <t>debug_log97.txt</t>
+  </si>
+  <si>
+    <t>Block size increased 5 to 7, with dilation</t>
+  </si>
+  <si>
+    <t>Block size increased 5 to 7, without dilation</t>
+  </si>
+  <si>
+    <t>Constant increased 1 to 2, with dilation</t>
+  </si>
+  <si>
+    <t>Constant increased 1 to 2, without dilation</t>
+  </si>
+  <si>
+    <t>338 over 1338</t>
+  </si>
+  <si>
+    <t>1152 over 2152</t>
+  </si>
+  <si>
+    <t>363 over 1363</t>
+  </si>
+  <si>
+    <t>Canny</t>
+  </si>
+  <si>
+    <t>Block size or lower</t>
+  </si>
+  <si>
+    <t>C Constant or upper</t>
+  </si>
+  <si>
+    <t>adaptive_test21.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test22.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test_warp21.avi</t>
+  </si>
+  <si>
+    <t>adaptive_test_warp22.avi</t>
+  </si>
+  <si>
+    <t>Adaptive_time_profile19.txt</t>
+  </si>
+  <si>
+    <t>Adaptive_time_profile20.txt</t>
+  </si>
+  <si>
+    <t>debug_log98.txt</t>
+  </si>
+  <si>
+    <t>debug_log99.txt</t>
+  </si>
+  <si>
+    <t>canny_test00.avi</t>
+  </si>
+  <si>
+    <t>canny_test_warp00.avi</t>
+  </si>
+  <si>
+    <t>Canny_time_profile00.txt</t>
+  </si>
+  <si>
+    <t>debug_log100.txt</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>canny_test01.avi</t>
+  </si>
+  <si>
+    <t>canny_test_warp01.avi</t>
+  </si>
+  <si>
+    <t>Canny_time_profile01.txt</t>
+  </si>
+  <si>
+    <t>debug_log101.txt</t>
+  </si>
+  <si>
+    <t>canny_test02.avi</t>
+  </si>
+  <si>
+    <t>canny_test_warp02.avi</t>
+  </si>
+  <si>
+    <t>Canny_time_profile02.txt</t>
+  </si>
+  <si>
+    <t>debug_log102.txt</t>
+  </si>
+  <si>
+    <t>canny_test03.avi</t>
+  </si>
+  <si>
+    <t>canny_test_warp03.avi</t>
+  </si>
+  <si>
+    <t>Canny_time_profile03.txt</t>
+  </si>
+  <si>
+    <t>debug_log103.txt</t>
+  </si>
+  <si>
+    <t>canny_test04.avi</t>
+  </si>
+  <si>
+    <t>canny_test_warp04.avi</t>
+  </si>
+  <si>
+    <t>Canny_time_profile04.txt</t>
+  </si>
+  <si>
+    <t>debug_log104.txt</t>
+  </si>
+  <si>
+    <t>canny_test05.avi</t>
+  </si>
+  <si>
+    <t>canny_test_warp05.avi</t>
+  </si>
+  <si>
+    <t>Canny_time_profile05.txt</t>
+  </si>
+  <si>
+    <t>debug_log105.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,8 +576,16 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +602,11 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -300,10 +634,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -317,8 +652,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -631,427 +970,1329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="3" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.42578125" style="3" customWidth="1"/>
-    <col min="11" max="12" width="40.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="49.42578125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="35.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.42578125" style="3" customWidth="1"/>
+    <col min="12" max="13" width="40.42578125" style="3" customWidth="1"/>
+    <col min="14" max="15" width="56.140625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="3">
+        <v>100</v>
+      </c>
+      <c r="G2" s="3">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3">
         <v>100</v>
       </c>
-      <c r="F2" s="3">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="3">
-        <v>100</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="G6" s="3">
         <v>5</v>
       </c>
-      <c r="G3" s="3">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="3">
-        <v>100</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="3">
-        <v>100</v>
-      </c>
-      <c r="F5" s="3">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="3">
-        <v>100</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
+    </row>
+    <row r="7" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1000</v>
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>1</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1000</v>
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="3">
         <v>5</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="M9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="3">
         <v>5</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H13" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="3">
+        <v>7</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>7</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>7</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="3">
+        <v>9</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>9</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>9</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>9</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>11</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>11</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>150</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>25</v>
+      </c>
+      <c r="H26" s="3">
+        <v>150</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>50</v>
+      </c>
+      <c r="H27" s="3">
+        <v>150</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="3">
+        <v>75</v>
+      </c>
+      <c r="H28" s="3">
+        <v>150</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>65</v>
+      <c r="B29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="3">
+        <v>100</v>
+      </c>
+      <c r="H29" s="3">
+        <v>150</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="3">
+        <v>125</v>
+      </c>
+      <c r="H30" s="3">
+        <v>150</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="J13:J14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
